--- a/宏观经济/eta/10年期美国国债收益率_月度数据.xlsx
+++ b/宏观经济/eta/10年期美国国债收益率_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>4.03</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
       <c r="C3" t="n">
-        <v>3.98</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="4">
